--- a/База.xlsx
+++ b/База.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.gorobets\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.gorobets\YandexDisk\-=SMARTA=-\--=Каталог=--\3. Клап. процесстехники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5545A7-DB1D-41E6-A40C-994E025BA12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5661518D-42E6-4DC9-948F-3889FD9A35AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B8F0A273-78DD-48E7-84C6-24E280BDB437}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10416" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10596" uniqueCount="1348">
   <si>
     <t>2710-EMCP-15-S1-420N</t>
   </si>
@@ -4011,6 +4011,81 @@
   </si>
   <si>
     <t>4788,5 юаней</t>
+  </si>
+  <si>
+    <t>ELP-HP-060-06E2</t>
+  </si>
+  <si>
+    <t>ELP-HP-060-06E4</t>
+  </si>
+  <si>
+    <t>ELP-HP-020-08E2</t>
+  </si>
+  <si>
+    <t>ELP-HP-020-08E4</t>
+  </si>
+  <si>
+    <t>ELP-HP-025-08E2</t>
+  </si>
+  <si>
+    <t>ELP-HP-025-08E4</t>
+  </si>
+  <si>
+    <t>ELP-HP-030-08E2</t>
+  </si>
+  <si>
+    <t>ELP-HP-030-08E4</t>
+  </si>
+  <si>
+    <t>ELP-HP-020-10E4</t>
+  </si>
+  <si>
+    <t>ELP-HP-025-10E2</t>
+  </si>
+  <si>
+    <t>ELP-HP-025-10E4</t>
+  </si>
+  <si>
+    <t>ELP-HP-030-10E2</t>
+  </si>
+  <si>
+    <t>ELP-HP-030-10E4</t>
+  </si>
+  <si>
+    <t>ELP-HP-040-10E2</t>
+  </si>
+  <si>
+    <t>ELP-HP-040-10E4</t>
+  </si>
+  <si>
+    <t>2…80</t>
+  </si>
+  <si>
+    <t>0…120</t>
+  </si>
+  <si>
+    <t>0…80</t>
+  </si>
+  <si>
+    <t>0…40</t>
+  </si>
+  <si>
+    <t>0…15</t>
+  </si>
+  <si>
+    <t>2…160</t>
+  </si>
+  <si>
+    <t>0…180</t>
+  </si>
+  <si>
+    <t>0…110</t>
+  </si>
+  <si>
+    <t>672,60 юаней</t>
+  </si>
+  <si>
+    <t>560,50 юаней</t>
   </si>
 </sst>
 </file>
@@ -4178,6 +4253,20 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -4208,20 +4297,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4591,8 +4666,8 @@
     <tableColumn id="10" xr3:uid="{E76CA6A0-43D6-4F28-AA3C-30EAC8930956}" name="Макс. темп. рабочей среды, °С" dataDxfId="6" dataCellStyle="Обычный"/>
     <tableColumn id="9" xr3:uid="{CF73F85B-8019-4063-8847-6C0524E99A1C}" name="Рабочее давление управления, МПа" dataDxfId="5" dataCellStyle="Обычный"/>
     <tableColumn id="12" xr3:uid="{7D9E0C3F-BC1F-4DC9-8188-1E70AD1CD29E}" name="Материал привода" dataDxfId="4" dataCellStyle="Обычный"/>
-    <tableColumn id="6" xr3:uid="{78215910-F83E-4447-8A2C-0A9B5621AE13}" name="Документация" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{C870A0A9-89EC-47AC-A2C4-7440938767B8}" name="Цена BPL" dataDxfId="0" dataCellStyle="Обычный"/>
+    <tableColumn id="6" xr3:uid="{78215910-F83E-4447-8A2C-0A9B5621AE13}" name="Документация" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C870A0A9-89EC-47AC-A2C4-7440938767B8}" name="Цена BPL" dataDxfId="2" dataCellStyle="Обычный"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4917,16 +4992,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBECB9D-DED0-40BF-910A-588F4F0A9C9C}">
   <dimension ref="A1:O1111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A849" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D866" sqref="D866"/>
+    <sheetView tabSelected="1" topLeftCell="A856" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D886" sqref="D886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="8" customWidth="1"/>
     <col min="5" max="7" width="19" style="8" customWidth="1"/>
     <col min="8" max="8" width="30" style="8" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" style="8" customWidth="1"/>
@@ -45740,87 +45815,747 @@
       </c>
     </row>
     <row r="869" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F869" s="10"/>
+      <c r="A869" s="7">
+        <v>30069460</v>
+      </c>
+      <c r="B869" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C869" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D869" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E869" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F869" s="10">
+        <v>6</v>
+      </c>
+      <c r="G869" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H869" s="8" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I869" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J869" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K869" s="1">
+        <v>80</v>
+      </c>
+      <c r="L869" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M869" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N869" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O869" s="13" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="870" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F870" s="10"/>
+      <c r="A870" s="7">
+        <v>30069461</v>
+      </c>
+      <c r="B870" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C870" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D870" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E870" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F870" s="10">
+        <v>6</v>
+      </c>
+      <c r="G870" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H870" s="8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I870" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J870" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K870" s="1">
+        <v>80</v>
+      </c>
+      <c r="L870" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M870" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N870" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O870" s="13" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="871" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F871" s="10"/>
+      <c r="A871" s="7">
+        <v>30069463</v>
+      </c>
+      <c r="B871" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C871" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D871" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E871" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F871" s="10">
+        <v>2</v>
+      </c>
+      <c r="G871" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H871" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I871" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J871" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K871" s="1">
+        <v>80</v>
+      </c>
+      <c r="L871" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M871" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N871" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O871" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="872" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F872" s="10"/>
+      <c r="A872" s="7">
+        <v>30069464</v>
+      </c>
+      <c r="B872" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C872" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D872" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E872" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F872" s="10">
+        <v>2</v>
+      </c>
+      <c r="G872" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H872" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I872" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J872" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K872" s="1">
+        <v>80</v>
+      </c>
+      <c r="L872" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M872" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N872" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O872" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="873" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F873" s="10"/>
+      <c r="A873" s="7">
+        <v>30069465</v>
+      </c>
+      <c r="B873" s="8" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C873" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D873" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E873" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F873" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G873" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H873" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I873" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J873" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K873" s="1">
+        <v>80</v>
+      </c>
+      <c r="L873" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M873" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N873" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O873" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="874" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F874" s="10"/>
+      <c r="A874" s="7">
+        <v>30069466</v>
+      </c>
+      <c r="B874" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C874" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D874" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E874" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F874" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G874" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H874" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I874" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J874" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K874" s="1">
+        <v>80</v>
+      </c>
+      <c r="L874" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M874" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N874" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O874" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="875" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F875" s="10"/>
+      <c r="A875" s="7">
+        <v>30069467</v>
+      </c>
+      <c r="B875" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C875" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D875" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E875" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F875" s="10">
+        <v>3</v>
+      </c>
+      <c r="G875" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H875" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I875" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J875" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K875" s="1">
+        <v>80</v>
+      </c>
+      <c r="L875" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M875" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N875" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O875" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="876" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F876" s="10"/>
+      <c r="A876" s="7">
+        <v>30069469</v>
+      </c>
+      <c r="B876" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C876" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D876" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E876" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F876" s="10">
+        <v>3</v>
+      </c>
+      <c r="G876" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H876" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I876" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J876" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K876" s="1">
+        <v>80</v>
+      </c>
+      <c r="L876" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M876" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N876" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O876" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="877" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F877" s="10"/>
+      <c r="A877" s="7">
+        <v>30069471</v>
+      </c>
+      <c r="B877" s="8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C877" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D877" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E877" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F877" s="10">
+        <v>2</v>
+      </c>
+      <c r="G877" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H877" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I877" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J877" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K877" s="1">
+        <v>80</v>
+      </c>
+      <c r="L877" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M877" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N877" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O877" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="878" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F878" s="10"/>
+      <c r="A878" s="7">
+        <v>30069472</v>
+      </c>
+      <c r="B878" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C878" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D878" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E878" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F878" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G878" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H878" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I878" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J878" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K878" s="1">
+        <v>80</v>
+      </c>
+      <c r="L878" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M878" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N878" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O878" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="879" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F879" s="10"/>
+      <c r="A879" s="7">
+        <v>30069473</v>
+      </c>
+      <c r="B879" s="8" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C879" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D879" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E879" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F879" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G879" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H879" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I879" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J879" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K879" s="1">
+        <v>80</v>
+      </c>
+      <c r="L879" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M879" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N879" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O879" s="13" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="880" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F880" s="10"/>
-    </row>
-    <row r="881" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F881" s="10"/>
-    </row>
-    <row r="882" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F882" s="10"/>
-    </row>
-    <row r="883" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F883" s="10"/>
-    </row>
-    <row r="884" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="A880" s="7">
+        <v>30069474</v>
+      </c>
+      <c r="B880" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C880" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D880" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E880" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F880" s="10">
+        <v>3</v>
+      </c>
+      <c r="G880" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H880" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I880" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J880" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K880" s="1">
+        <v>80</v>
+      </c>
+      <c r="L880" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M880" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N880" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O880" s="13" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="881" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A881" s="7">
+        <v>30069475</v>
+      </c>
+      <c r="B881" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C881" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D881" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E881" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F881" s="10">
+        <v>3</v>
+      </c>
+      <c r="G881" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H881" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I881" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J881" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K881" s="1">
+        <v>80</v>
+      </c>
+      <c r="L881" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M881" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N881" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O881" s="13" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="882" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A882" s="7">
+        <v>30069476</v>
+      </c>
+      <c r="B882" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C882" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D882" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E882" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F882" s="10">
+        <v>4</v>
+      </c>
+      <c r="G882" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H882" s="8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I882" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J882" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K882" s="1">
+        <v>80</v>
+      </c>
+      <c r="L882" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M882" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N882" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O882" s="13" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="883" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A883" s="7">
+        <v>30069477</v>
+      </c>
+      <c r="B883" s="8" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C883" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D883" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="E883" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F883" s="10">
+        <v>4</v>
+      </c>
+      <c r="G883" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H883" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I883" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J883" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K883" s="1">
+        <v>80</v>
+      </c>
+      <c r="L883" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M883" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N883" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="O883" s="13" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="884" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F884" s="10"/>
     </row>
-    <row r="885" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F885" s="10"/>
     </row>
-    <row r="886" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F886" s="10"/>
     </row>
-    <row r="887" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F887" s="10"/>
     </row>
-    <row r="888" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F888" s="10"/>
     </row>
-    <row r="889" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F889" s="10"/>
     </row>
-    <row r="890" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F890" s="10"/>
     </row>
-    <row r="891" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F891" s="10"/>
     </row>
-    <row r="892" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F892" s="10"/>
     </row>
-    <row r="893" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F893" s="10"/>
     </row>
-    <row r="894" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F894" s="10"/>
     </row>
-    <row r="895" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F895" s="10"/>
     </row>
-    <row r="896" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F896" s="10"/>
     </row>
     <row r="897" spans="6:6" x14ac:dyDescent="0.3">
@@ -46471,12 +47206,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I123:N123 I124:M125 N124:N140 I136:M136">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"да"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O123:O125 O136">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"да"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46564,11 +47299,12 @@
     <hyperlink ref="N866" r:id="rId81" xr:uid="{6BA93612-E159-4178-84FB-B00CEB8BAA3E}"/>
     <hyperlink ref="N868" r:id="rId82" xr:uid="{15808770-AA4F-4EBF-822A-75D411A9AB67}"/>
     <hyperlink ref="N784" r:id="rId83" xr:uid="{D6A6D8B5-37D2-40B9-8420-53613CED1E15}"/>
+    <hyperlink ref="N869:N883" r:id="rId84" display="https://docs.smarta.ru/catalogues/PA/3_Valves/ELP-HP_SMARTA_07_2025_PA.pdf" xr:uid="{4982D820-BE2C-4362-AECE-C5EE65C64BCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId85"/>
   <tableParts count="1">
-    <tablePart r:id="rId85"/>
+    <tablePart r:id="rId86"/>
   </tableParts>
 </worksheet>
 </file>